--- a/DOCUMENTATION/USM/Group_d_471_winter_2020.xlsx
+++ b/DOCUMENTATION/USM/Group_d_471_winter_2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>911 simulation</t>
   </si>
@@ -26,10 +26,7 @@
     <t>Dial 911</t>
   </si>
   <si>
-    <t>Display Fire Safety Information</t>
-  </si>
-  <si>
-    <t>Updating Information</t>
+    <t>Display Emergency Information</t>
   </si>
   <si>
     <t>Safety Preparation</t>
@@ -56,7 +53,13 @@
     <t>MVP2</t>
   </si>
   <si>
-    <t/>
+    <t>911 information Interface</t>
+  </si>
+  <si>
+    <t>911 Q/A</t>
+  </si>
+  <si>
+    <t>911 Information</t>
   </si>
 </sst>
 </file>
@@ -184,7 +187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0"/>
   </sheetViews>
@@ -204,9 +207,7 @@
     <col min="12" max="12" width="20" customWidth="1" style="1"/>
     <col min="13" max="13" width="2" customWidth="1" style="1"/>
     <col min="14" max="14" width="20" customWidth="1" style="1"/>
-    <col min="15" max="15" width="2" customWidth="1" style="1"/>
-    <col min="16" max="16" width="20" customWidth="1" style="1"/>
-    <col min="17" max="16384" width="9.140625" customWidth="1" style="1"/>
+    <col min="15" max="16384" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="72" customHeight="1">
@@ -240,14 +241,11 @@
       <c r="N3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="4" ht="10" customHeight="1"/>
     <row r="5">
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -261,22 +259,20 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
     </row>
     <row r="6" ht="10" customHeight="1"/>
     <row r="7" ht="72" customHeight="1">
       <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" ht="10" customHeight="1"/>
     <row r="9">
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -290,13 +286,17 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
     </row>
     <row r="10" ht="10" customHeight="1"/>
     <row r="11" ht="72" customHeight="1">
       <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
